--- a/Глаза, Душа и Сердце.registry.xlsx
+++ b/Глаза, Душа и Сердце.registry.xlsx
@@ -23,14 +23,18 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Глаза, душа '!$A$1:$D$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Глаза, душа '!$A$1:$D$229</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Глаза, душа '!$A$1:$D$225</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$229</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$225</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$229</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$225</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$229</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$229</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$225</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$225</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$225</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Глаза, душа '!$A$1:$D$225</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="369">
   <si>
     <t xml:space="preserve">Имя файла</t>
   </si>
@@ -56,24 +60,42 @@
     <t xml:space="preserve">Количество строф</t>
   </si>
   <si>
+    <t xml:space="preserve">serega</t>
+  </si>
+  <si>
     <t xml:space="preserve">Когда за пятьдесят мне стало</t>
   </si>
   <si>
+    <t xml:space="preserve">Нет</t>
+  </si>
+  <si>
     <t xml:space="preserve">12 строчек в начале книги!</t>
   </si>
   <si>
     <t xml:space="preserve">Игра слов</t>
   </si>
   <si>
+    <t xml:space="preserve">Не мало? См. Замечания</t>
+  </si>
+  <si>
     <t xml:space="preserve">На небе правители свои</t>
   </si>
   <si>
+    <t xml:space="preserve">замечания. Очень трудно читается. Со строфы на строфу ломается темп</t>
+  </si>
+  <si>
     <t xml:space="preserve">На пороге новый год</t>
   </si>
   <si>
+    <t xml:space="preserve">Да</t>
+  </si>
+  <si>
     <t xml:space="preserve">14 строчек</t>
   </si>
   <si>
+    <t xml:space="preserve">ХОРОШО. Еще раз прочту потом.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Паутина</t>
   </si>
   <si>
@@ -83,27 +105,45 @@
     <t xml:space="preserve">Отчий дом</t>
   </si>
   <si>
+    <t xml:space="preserve">Очень хорошо. Посмотрите первую строфу.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Берегите и любите книги</t>
   </si>
   <si>
+    <t xml:space="preserve">замечания. </t>
+  </si>
+  <si>
     <t xml:space="preserve">В голодный год</t>
   </si>
   <si>
     <t xml:space="preserve">В небе радуга проснётся</t>
   </si>
   <si>
+    <t xml:space="preserve">Небольшие замечания. Посмотрите</t>
+  </si>
+  <si>
     <t xml:space="preserve">В разгаре лето</t>
   </si>
   <si>
+    <t xml:space="preserve">замечания.  Название стиха точно подходит???</t>
+  </si>
+  <si>
     <t xml:space="preserve">Валюшка</t>
   </si>
   <si>
+    <t xml:space="preserve">немного поправить</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ветка вербы</t>
   </si>
   <si>
     <t xml:space="preserve">8 строчек</t>
   </si>
   <si>
+    <t xml:space="preserve">хорошо, ровненько.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Вот такая рас такая</t>
   </si>
   <si>
@@ -113,42 +153,72 @@
     <t xml:space="preserve">Голубка, наша дорогая</t>
   </si>
   <si>
+    <t xml:space="preserve">ПРЕКРАСНО. Чуть поправил для рифмы. См. Рецензию</t>
+  </si>
+  <si>
     <t xml:space="preserve">День России</t>
   </si>
   <si>
+    <t xml:space="preserve">Хорошо, есть небольшое замечание.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Другими глазами</t>
   </si>
   <si>
     <t xml:space="preserve">Другу поэту</t>
   </si>
   <si>
+    <t xml:space="preserve">хорошо</t>
+  </si>
+  <si>
     <t xml:space="preserve">Дыхание весны</t>
   </si>
   <si>
+    <t xml:space="preserve">Хорошо. Интересный слог. См. Небольшие замечания</t>
+  </si>
+  <si>
     <t xml:space="preserve">Едет общество слепых</t>
   </si>
   <si>
+    <t xml:space="preserve">Чих-пых уберите</t>
+  </si>
+  <si>
     <t xml:space="preserve">Женский день</t>
   </si>
   <si>
+    <t xml:space="preserve">маленько подправить, см. замечания. А вообще хорошо</t>
+  </si>
+  <si>
     <t xml:space="preserve">Замечательная Мама</t>
   </si>
   <si>
+    <t xml:space="preserve">хорошо. Немного поправить. См замечания</t>
+  </si>
+  <si>
     <t xml:space="preserve">Заповедь моя</t>
   </si>
   <si>
+    <t xml:space="preserve">прочту еще раз потом</t>
+  </si>
+  <si>
     <t xml:space="preserve">И душа сияла</t>
   </si>
   <si>
     <t xml:space="preserve">Инвалидом себя не считала</t>
   </si>
   <si>
+    <t xml:space="preserve">посоветовал бы избегать слова «инвалид», как в названии, так и в тексте</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ишь, ты! </t>
   </si>
   <si>
     <t xml:space="preserve">Как за каменной стеной</t>
   </si>
   <si>
+    <t xml:space="preserve">Идея понятна. Жена трудится, муж лодырь, но повествуется в виде каши.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Клуб общения</t>
   </si>
   <si>
@@ -164,27 +234,42 @@
     <t xml:space="preserve">Надежда на время</t>
   </si>
   <si>
+    <t xml:space="preserve">есть замечания</t>
+  </si>
+  <si>
     <t xml:space="preserve">Нам закружила голову весна</t>
   </si>
   <si>
     <t xml:space="preserve">Настоящая дружба</t>
   </si>
   <si>
+    <t xml:space="preserve">хорошо, но есть заммечание</t>
+  </si>
+  <si>
     <t xml:space="preserve">Наши руки, не для скуки</t>
   </si>
   <si>
     <t xml:space="preserve">Не забудем во веки</t>
   </si>
   <si>
-    <t xml:space="preserve">Не заметно ночка тает</t>
+    <t xml:space="preserve">Незаметно ночка тает</t>
+  </si>
+  <si>
+    <t xml:space="preserve">очень хорошо. Немного доработать</t>
   </si>
   <si>
     <t xml:space="preserve">Не пойму никак девчат</t>
   </si>
   <si>
+    <t xml:space="preserve">переместить в «Шуточные». По задору подходит</t>
+  </si>
+  <si>
     <t xml:space="preserve">Не стреляйте в белых лебедей</t>
   </si>
   <si>
+    <t xml:space="preserve">см. замечания</t>
+  </si>
+  <si>
     <t xml:space="preserve">Островок надежды</t>
   </si>
   <si>
@@ -194,6 +279,9 @@
     <t xml:space="preserve">Открываю я сезон</t>
   </si>
   <si>
+    <t xml:space="preserve">Ритм хороший, задорный, рифма хорошая. Но как-то про все сразу. И про грибы, и про заботу</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ох, умаялась за день!</t>
   </si>
   <si>
@@ -206,6 +294,9 @@
     <t xml:space="preserve">Природа плачет</t>
   </si>
   <si>
+    <t xml:space="preserve">хорошо. См. Текст</t>
+  </si>
+  <si>
     <t xml:space="preserve">Приснился сон</t>
   </si>
   <si>
@@ -224,6 +315,9 @@
     <t xml:space="preserve">Счастье задним числом</t>
   </si>
   <si>
+    <t xml:space="preserve">плохо</t>
+  </si>
+  <si>
     <t xml:space="preserve">Тонкие души</t>
   </si>
   <si>
@@ -242,12 +336,12 @@
     <t xml:space="preserve">Это очень не правильно</t>
   </si>
   <si>
+    <t xml:space="preserve">Напоминает песню Газманова «Ясные дни»</t>
+  </si>
+  <si>
     <t xml:space="preserve">Я хочу</t>
   </si>
   <si>
-    <t xml:space="preserve">serega</t>
-  </si>
-  <si>
     <t xml:space="preserve">Об авторе</t>
   </si>
   <si>
@@ -269,16 +363,10 @@
     <t xml:space="preserve">Наше село</t>
   </si>
   <si>
-    <t xml:space="preserve">Нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">есть замечания</t>
-  </si>
-  <si>
     <t xml:space="preserve">Вдали от дома</t>
   </si>
   <si>
-    <t xml:space="preserve">Да</t>
+    <t xml:space="preserve">есть замечание</t>
   </si>
   <si>
     <t xml:space="preserve">Я деревенская</t>
@@ -287,6 +375,9 @@
     <t xml:space="preserve">Прекрасная Земля</t>
   </si>
   <si>
+    <t xml:space="preserve">Есть замечания.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ты знаешь, дорогой мой друг</t>
   </si>
   <si>
@@ -449,6 +540,9 @@
     <t xml:space="preserve">Не повторяется</t>
   </si>
   <si>
+    <t xml:space="preserve">Как наше детство проходило</t>
+  </si>
+  <si>
     <t xml:space="preserve">За Мир!</t>
   </si>
   <si>
@@ -713,6 +807,9 @@
     <t xml:space="preserve">Золотые купола</t>
   </si>
   <si>
+    <t xml:space="preserve">см. примечания</t>
+  </si>
+  <si>
     <t xml:space="preserve">Православная Россия</t>
   </si>
   <si>
@@ -755,33 +852,57 @@
     <t xml:space="preserve">Я постою у холмика земли</t>
   </si>
   <si>
-    <t xml:space="preserve">26 строчек</t>
-  </si>
-  <si>
     <t xml:space="preserve">Покупки</t>
   </si>
   <si>
+    <t xml:space="preserve">разбил на строфы</t>
+  </si>
+  <si>
     <t xml:space="preserve">Горький сон</t>
   </si>
   <si>
+    <t xml:space="preserve">См. коментарии. Это точно в главе «Шуточные»? Тема не юморная, человек задумался глубоко</t>
+  </si>
+  <si>
     <t xml:space="preserve">У меня была коза</t>
   </si>
   <si>
+    <t xml:space="preserve">сгодится</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ой, Юра!</t>
   </si>
   <si>
+    <t xml:space="preserve">См. коментарии
+Не понятно, когда переходит речь от мужчины к женщине.
+Если это пьеса, с действующими лицами (мужской голос, женский голос) — то сгодится. 
+Только непонятно, как это обозначить, когда читаешь со сцены.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Пуще неволи</t>
   </si>
   <si>
+    <t xml:space="preserve">ВООБЩЕ НИЧЕГО НЕ ПОНЯТНО.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Поругались свахи</t>
   </si>
   <si>
+    <t xml:space="preserve">см. коментарии.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Охрана</t>
   </si>
   <si>
+    <t xml:space="preserve">см замечания</t>
+  </si>
+  <si>
     <t xml:space="preserve">Я и эдак, я и так</t>
   </si>
   <si>
+    <t xml:space="preserve">См. примечания</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сплетни</t>
   </si>
   <si>
@@ -794,6 +915,9 @@
     <t xml:space="preserve">Ой, беда, беда, беда</t>
   </si>
   <si>
+    <t xml:space="preserve">см. замечания. Начали за здравие</t>
+  </si>
+  <si>
     <t xml:space="preserve">Лиса и журавль</t>
   </si>
   <si>
@@ -803,6 +927,9 @@
     <t xml:space="preserve">Движение - жизнь</t>
   </si>
   <si>
+    <t xml:space="preserve">тут остановился.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Карусель</t>
   </si>
   <si>
@@ -824,6 +951,9 @@
     <t xml:space="preserve">Угощенье</t>
   </si>
   <si>
+    <t xml:space="preserve">очень хорошо</t>
+  </si>
+  <si>
     <t xml:space="preserve">Банька</t>
   </si>
   <si>
@@ -833,6 +963,9 @@
     <t xml:space="preserve">Берёза белая</t>
   </si>
   <si>
+    <t xml:space="preserve">поправить</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мозоли</t>
   </si>
   <si>
@@ -851,15 +984,27 @@
     <t xml:space="preserve">Анастасия</t>
   </si>
   <si>
+    <t xml:space="preserve">ОЙ</t>
+  </si>
+  <si>
     <t xml:space="preserve">А годы летят</t>
   </si>
   <si>
+    <t xml:space="preserve">чуть доработать. См. Примечания</t>
+  </si>
+  <si>
     <t xml:space="preserve">При луне</t>
   </si>
   <si>
+    <t xml:space="preserve">поправил, посмотрите</t>
+  </si>
+  <si>
     <t xml:space="preserve">Кредит</t>
   </si>
   <si>
+    <t xml:space="preserve">надо доработать</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ловкость рук</t>
   </si>
   <si>
@@ -869,6 +1014,10 @@
     <t xml:space="preserve">Уголок мечты</t>
   </si>
   <si>
+    <t xml:space="preserve">Хорошо. Есть ощущение, что не хватает вступления.
+Комментарии в тексте.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Колорадский жук</t>
   </si>
   <si>
@@ -878,30 +1027,55 @@
     <t xml:space="preserve">Хобби</t>
   </si>
   <si>
+    <t xml:space="preserve">сыровато. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Приметы</t>
   </si>
   <si>
     <t xml:space="preserve">Мурка</t>
   </si>
   <si>
+    <t xml:space="preserve">Очень трудно читается. Не могу дочитать до конца</t>
+  </si>
+  <si>
     <t xml:space="preserve">Наблюдения</t>
   </si>
   <si>
+    <t xml:space="preserve">пересмотреть</t>
+  </si>
+  <si>
     <t xml:space="preserve">Мораль</t>
   </si>
   <si>
+    <t xml:space="preserve">общее замечание: прыгает обращение Вы-Ты
+Есть ощущение, что надо переупорядочить строфы. См примечания</t>
+  </si>
+  <si>
     <t xml:space="preserve">Корень зла</t>
   </si>
   <si>
+    <t xml:space="preserve">доработать, см. замечания</t>
+  </si>
+  <si>
     <t xml:space="preserve">Жалеет и грустит</t>
   </si>
   <si>
+    <t xml:space="preserve">см. замечания. Может переименовать стих?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Пьяным море по колено</t>
   </si>
   <si>
+    <t xml:space="preserve">чуть подправил</t>
+  </si>
+  <si>
     <t xml:space="preserve">Озарение</t>
   </si>
   <si>
+    <t xml:space="preserve">чуть подправьте</t>
+  </si>
+  <si>
     <t xml:space="preserve">Разлучница</t>
   </si>
   <si>
@@ -914,9 +1088,15 @@
     <t xml:space="preserve">Деньги</t>
   </si>
   <si>
+    <t xml:space="preserve">басня…</t>
+  </si>
+  <si>
     <t xml:space="preserve">Катастрофа</t>
   </si>
   <si>
+    <t xml:space="preserve">ритм какой-то живенький…</t>
+  </si>
+  <si>
     <t xml:space="preserve">Брось, пока ещё не поздно</t>
   </si>
   <si>
@@ -929,12 +1109,21 @@
     <t xml:space="preserve">Плачь матерей</t>
   </si>
   <si>
+    <t xml:space="preserve">КАША. Про всё сразу</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сам сгубил</t>
   </si>
   <si>
+    <t xml:space="preserve">поправьте замечания</t>
+  </si>
+  <si>
     <t xml:space="preserve">Обречённый человек</t>
   </si>
   <si>
+    <t xml:space="preserve">причесать</t>
+  </si>
+  <si>
     <t xml:space="preserve">Путана</t>
   </si>
   <si>
@@ -950,10 +1139,16 @@
     <t xml:space="preserve">Ну как же быть</t>
   </si>
   <si>
+    <t xml:space="preserve">хорошо, но нужно обязательно доработать. Примечания</t>
+  </si>
+  <si>
     <t xml:space="preserve">Трава у дома</t>
   </si>
   <si>
     <t xml:space="preserve">Сто причин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хорошо, чуть поправил. Посмотрите</t>
   </si>
   <si>
     <t xml:space="preserve">По Сеньке шапка</t>
@@ -972,7 +1167,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -994,8 +1189,15 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,6 +1210,36 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF3333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -1018,7 +1250,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1042,8 +1274,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1056,15 +1291,130 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF66FF00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1080,18 +1430,18 @@
   <dimension ref="A1:E65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2448979591837"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="63.5816326530612"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
@@ -1108,169 +1458,337 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="E4" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="E8" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="0"/>
+        <v>32</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="0"/>
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="E18" s="0" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E20" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="0"/>
+        <v>47</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>5</v>
@@ -1278,305 +1796,463 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>28</v>
+        <v>52</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>32</v>
+        <v>58</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>33</v>
+        <v>59</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>34</v>
+        <v>60</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>36</v>
+        <v>63</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>37</v>
+        <v>64</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E36" s="0" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>38</v>
+        <v>66</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="0"/>
+        <v>67</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="0"/>
+        <v>70</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>42</v>
+        <v>72</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>13</v>
+        <v>3</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>4</v>
+        <v>74</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>44</v>
+        <v>76</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>45</v>
+        <v>78</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>46</v>
+        <v>79</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="0"/>
-      <c r="E46" s="0" t="s">
-        <v>48</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>49</v>
+        <v>81</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>50</v>
+        <v>83</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>51</v>
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>52</v>
+        <v>85</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="0"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>55</v>
+        <v>88</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>57</v>
+        <v>91</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="0"/>
+        <v>92</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>59</v>
+        <v>93</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>60</v>
+        <v>94</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>6</v>
+        <v>95</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="0"/>
+      <c r="E59" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:D8"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C14 C16:C60" type="list">
+      <formula1>"Да,Нет"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
@@ -1590,20 +2266,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.8979591836735"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
@@ -1623,23 +2299,38 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>259</v>
+        <v>299</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>260</v>
+        <v>301</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>261</v>
+        <v>302</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>4</v>
@@ -1647,161 +2338,266 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>262</v>
+        <v>303</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>263</v>
+        <v>305</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>264</v>
+        <v>306</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>265</v>
+        <v>307</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>266</v>
+        <v>308</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>267</v>
+        <v>309</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>268</v>
+        <v>310</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="F11" s="0" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>269</v>
+        <v>312</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="F12" s="0" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>270</v>
+        <v>314</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="F13" s="0" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>271</v>
+        <v>316</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F14" s="0" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>272</v>
+        <v>318</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>273</v>
+        <v>319</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>274</v>
+        <v>320</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="F17" s="9" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>275</v>
+        <v>322</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>276</v>
+        <v>323</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>277</v>
+        <v>324</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>278</v>
+        <v>326</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>279</v>
+        <v>327</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="F22" s="0" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>280</v>
+        <v>329</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="F23" s="0" t="s">
+        <v>330</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C23" type="list">
+      <formula1>"Да,Нет"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1814,20 +2610,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.6071428571429"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
@@ -1844,190 +2640,328 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="D2" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="0" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>335</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="D5" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="0" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>341</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>344</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>346</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>349</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="D13" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="0" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="0" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="D15" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="0" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="D16" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="D17" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="0" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>358</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="E18" s="0" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>359</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="D19" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="D20" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="0" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="D21" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="0" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="D22" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="0" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="0" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>4</v>
+        <v>366</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <conditionalFormatting sqref="C2:C23">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>нет</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>да</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C23" type="list">
+      <formula1>"Да,Нет"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2053,18 +2987,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>305</v>
+        <v>367</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="0" t="s">
-        <v>306</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2080,16 +3014,16 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3928571428571"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6581632653061"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
@@ -2107,163 +3041,183 @@
         <v>3</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>75</v>
+        <v>104</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>78</v>
+        <v>105</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F6" s="0" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>78</v>
+        <v>107</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F7" s="0" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>78</v>
+        <v>108</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>78</v>
+        <v>110</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="F9" s="0" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>78</v>
+        <v>111</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>78</v>
+        <v>112</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>78</v>
+        <v>113</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>78</v>
+        <v>114</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="F13" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>78</v>
+        <v>115</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>78</v>
+        <v>116</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>78</v>
+        <v>117</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>7</v>
@@ -2271,10 +3225,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>78</v>
+        <v>118</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>4</v>
@@ -2287,10 +3241,15 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C5:C17" type="list">
+      <formula1>"Да,Нет"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
@@ -2306,19 +3265,19 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2857142857143"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
@@ -2336,260 +3295,355 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>90</v>
+        <v>119</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>91</v>
+        <v>120</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>92</v>
+        <v>121</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>93</v>
+        <v>122</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>94</v>
+        <v>123</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>95</v>
+        <v>124</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>96</v>
+        <v>125</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>97</v>
+        <v>126</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>98</v>
+        <v>127</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>99</v>
+        <v>128</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>100</v>
+        <v>129</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>101</v>
+        <v>130</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>102</v>
+        <v>131</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>104</v>
+        <v>133</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>105</v>
+        <v>134</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>106</v>
+        <v>135</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>107</v>
+        <v>136</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>108</v>
+        <v>137</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>109</v>
+        <v>138</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>110</v>
+        <v>139</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>111</v>
+        <v>140</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>112</v>
+        <v>141</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>113</v>
+        <v>142</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>114</v>
+        <v>143</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>115</v>
+        <v>144</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>4</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>117</v>
+        <v>146</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>118</v>
+        <v>147</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>119</v>
+        <v>148</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>121</v>
+        <v>150</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="0" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>123</v>
+        <v>152</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C31" type="list">
+      <formula1>"Да,Нет"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2602,24 +3656,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.6938775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.0918367346939"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
@@ -2637,99 +3691,145 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>124</v>
+        <v>153</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>125</v>
+        <v>154</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>126</v>
+        <v>155</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>127</v>
+        <v>156</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>128</v>
+        <v>157</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>129</v>
+        <v>158</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>130</v>
+        <v>159</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>131</v>
+        <v>160</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>132</v>
+        <v>161</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>133</v>
+        <v>162</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>134</v>
+        <v>163</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>4</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C13" type="list">
+      <formula1>"Да,Нет"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2744,16 +3844,16 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
@@ -2773,16 +3873,22 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>135</v>
+        <v>165</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="0" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>137</v>
+        <v>167</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>8</v>
@@ -2790,7 +3896,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>138</v>
+        <v>168</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>7</v>
@@ -2798,7 +3907,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>139</v>
+        <v>169</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>7</v>
@@ -2806,7 +3918,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>140</v>
+        <v>170</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>7</v>
@@ -2814,7 +3929,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>141</v>
+        <v>171</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>7</v>
@@ -2822,7 +3940,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>142</v>
+        <v>172</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>8</v>
@@ -2830,7 +3951,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>143</v>
+        <v>173</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>9</v>
@@ -2838,7 +3962,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>144</v>
+        <v>174</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>4</v>
@@ -2846,17 +3973,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>145</v>
+        <v>175</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C11" type="list">
+      <formula1>"Да,Нет"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2872,17 +4007,17 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6887755102041"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
@@ -2900,25 +4035,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>146</v>
+        <v>176</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>147</v>
+        <v>177</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>148</v>
+        <v>178</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>7</v>
@@ -2926,192 +4070,264 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>149</v>
+        <v>179</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>150</v>
+        <v>180</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>151</v>
+        <v>181</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>152</v>
+        <v>182</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>153</v>
+        <v>183</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>154</v>
+        <v>184</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>155</v>
+        <v>185</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>156</v>
+        <v>186</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>157</v>
+        <v>187</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>158</v>
+        <v>188</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>159</v>
+        <v>189</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>160</v>
+        <v>190</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>161</v>
+        <v>191</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>162</v>
+        <v>192</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="0" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>164</v>
+        <v>194</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>165</v>
+        <v>195</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>167</v>
+        <v>197</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>168</v>
+        <v>198</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>170</v>
+        <v>200</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>171</v>
+        <v>201</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>172</v>
+        <v>202</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>173</v>
+        <v>203</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>8</v>
@@ -3119,161 +4335,223 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>174</v>
+        <v>204</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>175</v>
+        <v>205</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>176</v>
+        <v>206</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>177</v>
+        <v>207</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>178</v>
+        <v>208</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>179</v>
+        <v>209</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>180</v>
+        <v>210</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>181</v>
+        <v>211</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>182</v>
+        <v>212</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>183</v>
+        <v>213</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>184</v>
+        <v>214</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>185</v>
+        <v>215</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>186</v>
+        <v>216</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>187</v>
+        <v>217</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>188</v>
+        <v>218</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>189</v>
+        <v>219</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>190</v>
+        <v>220</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>191</v>
+        <v>221</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>192</v>
+        <v>222</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C47" type="list">
+      <formula1>"Да,Нет"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3289,16 +4567,16 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8418367346939"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
@@ -3316,65 +4594,89 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>193</v>
+        <v>223</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>194</v>
+        <v>224</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>195</v>
+        <v>225</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>196</v>
+        <v>226</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>197</v>
+        <v>227</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>198</v>
+        <v>228</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>199</v>
+        <v>229</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>200</v>
+        <v>230</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>6</v>
@@ -3382,179 +4684,247 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>201</v>
+        <v>231</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>202</v>
+        <v>232</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>203</v>
+        <v>233</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>204</v>
+        <v>234</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>205</v>
+        <v>235</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>206</v>
+        <v>236</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>207</v>
+        <v>237</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>208</v>
+        <v>238</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>209</v>
+        <v>239</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>210</v>
+        <v>240</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>211</v>
+        <v>241</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>212</v>
+        <v>242</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>213</v>
+        <v>243</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>214</v>
+        <v>244</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>215</v>
+        <v>245</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>216</v>
+        <v>246</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>217</v>
+        <v>247</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>218</v>
+        <v>248</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>219</v>
+        <v>249</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>220</v>
+        <v>250</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>221</v>
+        <v>251</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C30" type="list">
+      <formula1>"Да,Нет"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3567,21 +4937,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6632653061225"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
@@ -3599,131 +4969,184 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>222</v>
+        <v>252</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>223</v>
+        <v>254</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>224</v>
+        <v>255</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>225</v>
+        <v>256</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>226</v>
+        <v>257</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>227</v>
+        <v>258</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>228</v>
+        <v>259</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>229</v>
+        <v>260</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>231</v>
+        <v>262</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>232</v>
+        <v>263</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>233</v>
+        <v>264</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>234</v>
+        <v>265</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>235</v>
+        <v>266</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>236</v>
+        <v>267</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C16" type="list">
+      <formula1>"Да,Нет"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3739,17 +5162,17 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.9030612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
@@ -3766,119 +5189,187 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>237</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>239</v>
+        <v>270</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="E3" s="0" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>240</v>
+        <v>272</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>241</v>
+        <v>274</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="E5" s="9" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>78</v>
+        <v>276</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>243</v>
+        <v>278</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>7</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>244</v>
+        <v>280</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="1"/>
+      <c r="E8" s="0" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>245</v>
+        <v>282</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>246</v>
+        <v>284</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>247</v>
+        <v>285</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>248</v>
+        <v>286</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>249</v>
+        <v>287</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="E13" s="6" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>250</v>
+        <v>289</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>251</v>
+        <v>290</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>7</v>
@@ -3886,15 +5377,24 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>252</v>
+        <v>291</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="E16" s="0" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>253</v>
+        <v>293</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>9</v>
@@ -3902,7 +5402,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>254</v>
+        <v>294</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>5</v>
@@ -3910,7 +5413,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>255</v>
+        <v>295</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>7</v>
@@ -3918,7 +5424,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>256</v>
+        <v>296</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>6</v>
@@ -3926,7 +5435,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>257</v>
+        <v>297</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>3</v>
@@ -3934,17 +5446,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>258</v>
+        <v>298</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C22" type="list">
+      <formula1>"Да,Нет"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Глаза, Душа и Сердце.registry.xlsx
+++ b/Глаза, Душа и Сердце.registry.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="552" windowWidth="15036" windowHeight="5244" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="132" yWindow="552" windowWidth="15036" windowHeight="5244" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Глаза, душа " sheetId="1" r:id="rId1"/>
     <sheet name="Край любимый" sheetId="2" r:id="rId2"/>
     <sheet name="Хорошее настроение" sheetId="3" r:id="rId3"/>
-    <sheet name="Любимые и дорогие" sheetId="4" r:id="rId4"/>
-    <sheet name="Война и Мир" sheetId="5" r:id="rId5"/>
-    <sheet name="Разные судьбы" sheetId="6" r:id="rId6"/>
+    <sheet name="Разные судьбы" sheetId="6" r:id="rId4"/>
+    <sheet name="Любимые и дорогие" sheetId="4" r:id="rId5"/>
+    <sheet name="Война и Мир" sheetId="5" r:id="rId6"/>
     <sheet name="Жизнь, Любовь, Красота" sheetId="7" r:id="rId7"/>
     <sheet name="Память и Вера" sheetId="8" r:id="rId8"/>
     <sheet name="Шуточные" sheetId="9" r:id="rId9"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="452">
   <si>
     <t>Имя файла</t>
   </si>
@@ -581,9 +581,6 @@
     <t>Двойняшки</t>
   </si>
   <si>
-    <t xml:space="preserve">Учителя они? </t>
-  </si>
-  <si>
     <t>Соседка</t>
   </si>
   <si>
@@ -663,12 +660,6 @@
   </si>
   <si>
     <t>ставлю готово, но гляньте замечание</t>
-  </si>
-  <si>
-    <t>Пёстрый глобус</t>
-  </si>
-  <si>
-    <t>годный только первый абзац</t>
   </si>
   <si>
     <t>Дочка рядышком живёт</t>
@@ -1389,10 +1380,22 @@
     <t xml:space="preserve">да, </t>
   </si>
   <si>
-    <t xml:space="preserve">да, ещё </t>
-  </si>
-  <si>
-    <t>вместе посмотрим</t>
+    <t>пусть так</t>
+  </si>
+  <si>
+    <t>да, переименовать Я понял</t>
+  </si>
+  <si>
+    <t>д</t>
+  </si>
+  <si>
+    <t>да,оставить</t>
+  </si>
+  <si>
+    <t>не публикуем</t>
+  </si>
+  <si>
+    <t>да, оставили</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1981,7 +1984,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -1990,12 +1993,12 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>21</v>
@@ -2009,7 +2012,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -2020,7 +2023,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -2029,12 +2032,12 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -2048,7 +2051,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -2060,7 +2063,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -2072,7 +2075,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -2084,7 +2087,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -2093,12 +2096,12 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
@@ -2107,12 +2110,12 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -2121,12 +2124,12 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
@@ -2135,12 +2138,12 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
@@ -2152,7 +2155,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="16" spans="1:6" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -2173,12 +2176,12 @@
         <v>9</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -2187,12 +2190,12 @@
         <v>3</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
@@ -2204,7 +2207,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
@@ -2213,12 +2216,12 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -2230,7 +2233,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
@@ -2239,7 +2242,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
@@ -2247,7 +2250,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
@@ -2256,7 +2259,7 @@
         <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
@@ -2264,7 +2267,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
@@ -2273,7 +2276,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G23" t="s">
         <v>15</v>
@@ -2281,7 +2284,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
@@ -2290,26 +2293,26 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>6</v>
@@ -2321,7 +2324,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>6</v>
@@ -2333,7 +2336,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>6</v>
@@ -2342,12 +2345,12 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>21</v>
@@ -2356,12 +2359,12 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>6</v>
@@ -2370,12 +2373,12 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>6</v>
@@ -2385,12 +2388,12 @@
       </c>
       <c r="E31" s="20"/>
       <c r="G31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>6</v>
@@ -2434,7 +2437,7 @@
     </row>
     <row r="2" spans="1:7" ht="237.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -2443,15 +2446,15 @@
         <v>4</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -2460,12 +2463,12 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>6</v>
@@ -2474,12 +2477,12 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -2488,12 +2491,12 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -2502,23 +2505,23 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
@@ -2527,12 +2530,12 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -2541,12 +2544,12 @@
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -2555,12 +2558,12 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
@@ -2572,7 +2575,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -2587,7 +2590,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -2599,7 +2602,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
@@ -2608,12 +2611,12 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
@@ -2622,12 +2625,12 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -2636,15 +2639,15 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G16" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -2653,12 +2656,12 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>21</v>
@@ -2667,10 +2670,10 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
@@ -2678,7 +2681,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
@@ -2687,12 +2690,12 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -2701,12 +2704,12 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
@@ -2721,7 +2724,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>21</v>
@@ -2730,12 +2733,12 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>6</v>
@@ -2744,12 +2747,12 @@
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>6</v>
@@ -2758,12 +2761,12 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>21</v>
@@ -2774,7 +2777,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>6</v>
@@ -2788,7 +2791,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>21</v>
@@ -2802,7 +2805,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>6</v>
@@ -2814,7 +2817,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>6</v>
@@ -2828,7 +2831,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>6</v>
@@ -2837,7 +2840,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -2855,16 +2858,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -2873,27 +2876,27 @@
         <v>12</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1"/>
       <c r="F3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -2902,15 +2905,15 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -2922,7 +2925,7 @@
         <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3220,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3805,6 +3810,858 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="64.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>206</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
@@ -4009,10 +4866,10 @@
         <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L12" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4023,16 +4880,16 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E13" t="s">
         <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -4074,7 +4931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -4130,7 +4987,7 @@
         <v>136</v>
       </c>
       <c r="M3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -4147,7 +5004,7 @@
         <v>138</v>
       </c>
       <c r="M4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -4257,726 +5114,6 @@
       </c>
       <c r="M11" t="s">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>7</v>
-      </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>6</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1">
-        <v>10</v>
-      </c>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="330" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="1">
-        <v>7</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1">
-        <v>8</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1">
-        <v>8</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>186</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="1">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1">
-        <v>8</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="1">
-        <v>6</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>194</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="1">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>199</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="1">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="1">
-        <v>5</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="1">
-        <v>7</v>
-      </c>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>206</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="1">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>208</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="1">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>213</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="1">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>214</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="1">
-        <v>5</v>
-      </c>
-      <c r="E48" t="s">
-        <v>193</v>
-      </c>
-      <c r="F48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>216</v>
-      </c>
-      <c r="D49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>217</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>219</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>221</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>222</v>
-      </c>
-      <c r="F52" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>224</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4986,102 +5123,111 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>230</v>
       </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>231</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>233</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>236</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -5094,41 +5240,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="9"/>
       <c r="I8" t="s">
-        <v>449</v>
-      </c>
-      <c r="J8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -5137,12 +5283,15 @@
         <v>7</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="I10" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -5153,47 +5302,59 @@
       <c r="E11" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="I13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>243</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>246</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>21</v>
@@ -5201,10 +5362,13 @@
       <c r="D15" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -5215,10 +5379,13 @@
       <c r="E16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -5227,12 +5394,15 @@
         <v>8</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
@@ -5241,10 +5411,13 @@
         <v>7</v>
       </c>
       <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
@@ -5253,13 +5426,16 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -5267,157 +5443,190 @@
       <c r="D20" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
         <v>254</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>255</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1">
-        <v>6</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>256</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>258</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>261</v>
-      </c>
       <c r="C26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>262</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1">
-        <v>10</v>
-      </c>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
         <v>265</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>269</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F31" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>272</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>6</v>
@@ -5429,12 +5638,12 @@
         <v>104</v>
       </c>
       <c r="F32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>6</v>
@@ -5446,7 +5655,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>6</v>
@@ -5455,12 +5664,12 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>21</v>
@@ -5471,7 +5680,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>21</v>
@@ -5485,7 +5694,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>21</v>
@@ -5494,29 +5703,29 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>6</v>
@@ -5525,12 +5734,12 @@
         <v>5</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>21</v>
@@ -5568,7 +5777,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -5577,12 +5786,12 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -5593,7 +5802,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>21</v>
@@ -5602,12 +5811,12 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -5619,7 +5828,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -5630,7 +5839,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -5641,7 +5850,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -5652,7 +5861,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -5663,7 +5872,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -5674,7 +5883,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
@@ -5685,7 +5894,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -5696,7 +5905,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
@@ -5707,7 +5916,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
@@ -5718,7 +5927,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
@@ -5729,7 +5938,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -5740,7 +5949,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -5749,15 +5958,15 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>21</v>
@@ -5774,7 +5983,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
@@ -5783,15 +5992,15 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>21</v>
@@ -5800,10 +6009,10 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5815,7 +6024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5835,7 +6044,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -5844,12 +6053,12 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>21</v>
@@ -5858,12 +6067,12 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -5872,12 +6081,12 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -5886,12 +6095,12 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -5900,12 +6109,12 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>6</v>
@@ -5914,12 +6123,12 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -5928,12 +6137,12 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>6</v>
@@ -5945,7 +6154,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>6</v>
@@ -5957,7 +6166,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
@@ -5966,15 +6175,15 @@
         <v>9</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>6</v>
@@ -5987,7 +6196,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
@@ -5999,7 +6208,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
@@ -6008,13 +6217,13 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
@@ -6025,7 +6234,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -6036,7 +6245,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -6047,7 +6256,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
@@ -6058,7 +6267,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
@@ -6069,7 +6278,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>6</v>
@@ -6080,7 +6289,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
@@ -6094,7 +6303,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
